--- a/data/trans_orig/P19C10_2023-Nacimiento-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Nacimiento-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
